--- a/20220531_FunctionalDescription 진수빈.xlsx
+++ b/20220531_FunctionalDescription 진수빈.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anfzh\Documents\카카오워크 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anfzh\Desktop\IDEA\spring_framework\CheersMall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2775BFDD-2A94-4C12-B50F-493A6A5806A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CE90DA-2FBA-44B8-8718-E261421CF248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="969" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -973,7 +973,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="228">
   <si>
     <t>Functional Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1164,19 +1164,7 @@
     <t>MMF005</t>
   </si>
   <si>
-    <t>/member/detail</t>
-  </si>
-  <si>
-    <t>findById</t>
-  </si>
-  <si>
     <t>Long</t>
-  </si>
-  <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>member</t>
   </si>
   <si>
     <t>MMF006</t>
@@ -1488,10 +1476,6 @@
   </si>
   <si>
     <t>itemSave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원상세 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1823,6 +1807,30 @@
   </si>
   <si>
     <t>CommetDTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/myPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mypage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberDTO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1981,7 +1989,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1991,6 +1999,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2088,7 +2108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2137,14 +2157,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2156,6 +2173,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2538,8 +2564,8 @@
   </sheetPr>
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2563,40 +2589,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="39.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:16" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="E2" s="28" t="s">
+      <c r="B2" s="26"/>
+      <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="28"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
@@ -2604,61 +2630,61 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22" t="s">
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
       <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
@@ -2671,24 +2697,24 @@
       <c r="O5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="22"/>
+      <c r="P5" s="21"/>
     </row>
     <row r="6" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>185</v>
+      <c r="B6" s="18" t="s">
+        <v>180</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="16" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>26</v>
@@ -2712,12 +2738,12 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="16" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -2752,12 +2778,12 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="16" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -2794,12 +2820,12 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="17" t="s">
         <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -2834,19 +2860,19 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>145</v>
+      <c r="D10" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>55</v>
+        <v>223</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>26</v>
@@ -2855,42 +2881,42 @@
         <v>27</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>58</v>
+        <v>225</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>26</v>
@@ -2899,38 +2925,38 @@
         <v>27</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>26</v>
@@ -2939,22 +2965,22 @@
         <v>27</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>35</v>
@@ -2962,19 +2988,19 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>34</v>
@@ -2983,7 +3009,7 @@
         <v>27</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>35</v>
@@ -2995,24 +3021,24 @@
         <v>43</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>26</v>
@@ -3021,7 +3047,7 @@
         <v>27</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -3029,26 +3055,26 @@
         <v>43</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>34</v>
@@ -3060,19 +3086,19 @@
         <v>37</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>43</v>
@@ -3080,17 +3106,17 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>26</v>
@@ -3099,45 +3125,45 @@
         <v>27</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -3148,34 +3174,34 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -3184,30 +3210,30 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>88</v>
+      <c r="A19" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -3218,22 +3244,22 @@
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="20"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>27</v>
@@ -3242,44 +3268,44 @@
         <v>37</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="20"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -3287,10 +3313,10 @@
         <v>29</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>53</v>
@@ -3298,372 +3324,372 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="20"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="20"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="20"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="20"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="21"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>185</v>
+      <c r="A27" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>180</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="K27" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="20"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="20"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="20"/>
-      <c r="B30" s="16" t="s">
-        <v>88</v>
+      <c r="A30" s="19"/>
+      <c r="B30" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -3671,121 +3697,121 @@
         <v>29</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="20"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="19"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="20"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M32" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="19"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="1:16" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="20"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>152</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -3793,85 +3819,85 @@
         <v>29</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="20"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P34" s="3"/>
     </row>
     <row r="35" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="21"/>
-      <c r="B35" s="18"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>29</v>
@@ -3882,186 +3908,186 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>186</v>
+      <c r="A36" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H37" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P39" s="3" t="s">
         <v>46</v>

--- a/20220531_FunctionalDescription 진수빈.xlsx
+++ b/20220531_FunctionalDescription 진수빈.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anfzh\Desktop\IDEA\spring_framework\CheersMall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CE90DA-2FBA-44B8-8718-E261421CF248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAD0FDC-404D-4FE6-9854-6CEBBABA137B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="969" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1989,7 +1989,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2011,6 +2011,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2108,7 +2114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2163,32 +2169,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2201,6 +2189,27 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2564,8 +2573,8 @@
   </sheetPr>
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2589,40 +2598,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="39.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:16" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="E2" s="30" t="s">
+      <c r="B2" s="19"/>
+      <c r="E2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="30"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
@@ -2630,61 +2639,61 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21" t="s">
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
       <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
@@ -2697,13 +2706,13 @@
       <c r="O5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="21"/>
+      <c r="P5" s="20"/>
     </row>
     <row r="6" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2738,8 +2747,8 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
@@ -2778,8 +2787,8 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
@@ -2820,8 +2829,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="3" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2869,8 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="3" t="s">
         <v>54</v>
       </c>
@@ -2904,12 +2913,12 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="16" t="s">
         <v>117</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -2944,12 +2953,12 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="16" t="s">
         <v>116</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -2988,12 +2997,12 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -3028,8 +3037,8 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="3" t="s">
         <v>70</v>
       </c>
@@ -3062,8 +3071,8 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="3" t="s">
         <v>74</v>
       </c>
@@ -3106,8 +3115,8 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="3" t="s">
         <v>79</v>
       </c>
@@ -3144,12 +3153,12 @@
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="31" t="s">
         <v>118</v>
       </c>
       <c r="E17" s="3"/>
@@ -3174,12 +3183,12 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="31" t="s">
         <v>119</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -3210,10 +3219,10 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="28" t="s">
         <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -3244,8 +3253,8 @@
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="19"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="3" t="s">
         <v>172</v>
       </c>
@@ -3284,8 +3293,8 @@
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="19"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="3" t="s">
         <v>173</v>
       </c>
@@ -3324,8 +3333,8 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="19"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="3" t="s">
         <v>174</v>
       </c>
@@ -3368,8 +3377,8 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="19"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="3" t="s">
         <v>175</v>
       </c>
@@ -3412,8 +3421,8 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="19"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="3" t="s">
         <v>176</v>
       </c>
@@ -3452,8 +3461,8 @@
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="19"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="3" t="s">
         <v>177</v>
       </c>
@@ -3492,8 +3501,8 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="20"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="3" t="s">
         <v>178</v>
       </c>
@@ -3532,10 +3541,10 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="28" t="s">
         <v>180</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -3580,8 +3589,8 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="19"/>
-      <c r="B28" s="23"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="3" t="s">
         <v>163</v>
       </c>
@@ -3624,8 +3633,8 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="19"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="3" t="s">
         <v>164</v>
       </c>
@@ -3668,8 +3677,8 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="19"/>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="28" t="s">
         <v>84</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -3704,8 +3713,8 @@
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="19"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="3" t="s">
         <v>166</v>
       </c>
@@ -3748,8 +3757,8 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="19"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="3" t="s">
         <v>167</v>
       </c>
@@ -3792,8 +3801,8 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="19"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="3" t="s">
         <v>168</v>
       </c>
@@ -3826,8 +3835,8 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="19"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="3" t="s">
         <v>169</v>
       </c>
@@ -3870,8 +3879,8 @@
       <c r="P34" s="3"/>
     </row>
     <row r="35" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="20"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="3" t="s">
         <v>170</v>
       </c>
@@ -3908,10 +3917,10 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="25" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -3958,8 +3967,8 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="3" t="s">
         <v>155</v>
       </c>
@@ -4004,8 +4013,8 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="3" t="s">
         <v>156</v>
       </c>
@@ -4048,8 +4057,8 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="3" t="s">
         <v>157</v>
       </c>
@@ -4419,6 +4428,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="A6:A18"/>
+    <mergeCell ref="B6:B18"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A27:A35"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="L4:O4"/>
@@ -4435,16 +4454,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="A6:A18"/>
-    <mergeCell ref="B6:B18"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A27:A35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/20220531_FunctionalDescription 진수빈.xlsx
+++ b/20220531_FunctionalDescription 진수빈.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anfzh\Desktop\IDEA\spring_framework\CheersMall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAD0FDC-404D-4FE6-9854-6CEBBABA137B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665FC610-BE43-489C-90BA-F6CA73D52FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="969" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -973,7 +973,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="231">
   <si>
     <t>Functional Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1254,10 +1254,6 @@
   </si>
   <si>
     <t>관리자 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1833,12 +1829,28 @@
     <t>MemberDTO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>cheers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 로그인화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1988,6 +2000,12 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wide Latin"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2114,7 +2132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2169,6 +2187,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2207,9 +2231,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2573,8 +2594,8 @@
   </sheetPr>
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2598,40 +2619,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="39.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
     </row>
     <row r="2" spans="1:16" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="E2" s="24" t="s">
+      <c r="B2" s="21"/>
+      <c r="E2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
@@ -2639,61 +2660,61 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20" t="s">
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
@@ -2706,14 +2727,14 @@
       <c r="O5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="20"/>
+      <c r="P5" s="22"/>
     </row>
     <row r="6" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>180</v>
+      <c r="B6" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>23</v>
@@ -2723,7 +2744,7 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>26</v>
@@ -2747,8 +2768,8 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
@@ -2787,8 +2808,8 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
@@ -2829,8 +2850,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="3" t="s">
         <v>48</v>
       </c>
@@ -2869,19 +2890,19 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>26</v>
@@ -2890,36 +2911,36 @@
         <v>27</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>40</v>
@@ -2940,7 +2961,7 @@
         <v>55</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>43</v>
@@ -2953,19 +2974,19 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>26</v>
@@ -2997,8 +3018,8 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
@@ -3037,8 +3058,8 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="3" t="s">
         <v>70</v>
       </c>
@@ -3064,15 +3085,15 @@
         <v>43</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="3" t="s">
         <v>74</v>
       </c>
@@ -3104,10 +3125,10 @@
         <v>43</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>43</v>
@@ -3115,8 +3136,8 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="3" t="s">
         <v>79</v>
       </c>
@@ -3153,26 +3174,26 @@
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>117</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -3183,34 +3204,34 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>119</v>
+        <v>114</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -3219,24 +3240,24 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" s="28" t="s">
+      <c r="A19" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="30" t="s">
         <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>27</v>
@@ -3253,68 +3274,62 @@
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="26"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="26"/>
-      <c r="B21" s="29"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -3322,10 +3337,10 @@
         <v>29</v>
       </c>
       <c r="M21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N21" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>53</v>
@@ -3333,372 +3348,372 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="26"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="26"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="J23" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="26"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="J24" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="26"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="27"/>
-      <c r="B26" s="30"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B27" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="D27" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O27" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="26"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="I28" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M28" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O28" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N28" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="26"/>
-      <c r="B29" s="29"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M29" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="O29" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="26"/>
-      <c r="B30" s="28" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="30" t="s">
         <v>84</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -3706,121 +3721,121 @@
         <v>29</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="26"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O31" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="O31" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="26"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I32" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O32" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="26"/>
-      <c r="B33" s="29"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -3828,85 +3843,85 @@
         <v>29</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="26"/>
-      <c r="B34" s="29"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O34" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="O34" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="P34" s="3"/>
     </row>
     <row r="35" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="27"/>
-      <c r="B35" s="30"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>29</v>
@@ -3917,186 +3932,186 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>181</v>
+      <c r="B36" s="27" t="s">
+        <v>180</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M38" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N38" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="N38" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="O38" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K39" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P39" s="3" t="s">
         <v>46</v>
@@ -4142,7 +4157,9 @@
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="8"/>
+      <c r="D42" s="19" t="s">
+        <v>227</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -4160,7 +4177,9 @@
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="8"/>
+      <c r="D43" s="19" t="s">
+        <v>228</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>

--- a/20220531_FunctionalDescription 진수빈.xlsx
+++ b/20220531_FunctionalDescription 진수빈.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anfzh\Desktop\IDEA\spring_framework\CheersMall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665FC610-BE43-489C-90BA-F6CA73D52FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E8B033-B5CF-416A-81A9-63CE52332AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="969" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2132,7 +2132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2231,6 +2231,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2594,8 +2597,8 @@
   </sheetPr>
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:K20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3249,7 +3252,7 @@
       <c r="C19" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="33" t="s">
         <v>92</v>
       </c>
       <c r="E19" s="3"/>
@@ -3279,7 +3282,7 @@
       <c r="C20" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="33" t="s">
         <v>229</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -3313,7 +3316,7 @@
       <c r="C21" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="16" t="s">
         <v>94</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -3353,7 +3356,7 @@
       <c r="C22" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="18" t="s">
         <v>151</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -3397,7 +3400,7 @@
       <c r="C23" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="18" t="s">
         <v>181</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -3441,7 +3444,7 @@
       <c r="C24" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="18" t="s">
         <v>184</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -3481,7 +3484,7 @@
       <c r="C25" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="18" t="s">
         <v>185</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -3521,7 +3524,7 @@
       <c r="C26" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="18" t="s">
         <v>186</v>
       </c>
       <c r="E26" s="3" t="s">

--- a/20220531_FunctionalDescription 진수빈.xlsx
+++ b/20220531_FunctionalDescription 진수빈.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anfzh\Desktop\IDEA\spring_framework\CheersMall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E8B033-B5CF-416A-81A9-63CE52332AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180B8946-159C-4F80-8929-A9482C27ED57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="969" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1850,7 +1850,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2006,8 +2006,16 @@
       <name val="Wide Latin"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2034,7 +2042,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2132,7 +2146,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2175,32 +2189,44 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2214,25 +2240,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2597,8 +2617,8 @@
   </sheetPr>
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2622,40 +2642,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="39.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:16" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="E2" s="26" t="s">
+      <c r="B2" s="26"/>
+      <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="26"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
@@ -2663,61 +2683,61 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22" t="s">
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
       <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
@@ -2730,19 +2750,19 @@
       <c r="O5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="22"/>
+      <c r="P5" s="21"/>
     </row>
     <row r="6" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="18" t="s">
         <v>179</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="3"/>
@@ -2771,12 +2791,12 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -2811,12 +2831,12 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -2853,12 +2873,12 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -2893,12 +2913,12 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>221</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -2937,12 +2957,12 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>116</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -2977,12 +2997,12 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>115</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -3021,12 +3041,12 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -3061,12 +3081,12 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E14" s="3"/>
@@ -3095,12 +3115,12 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>75</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -3139,12 +3159,12 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>78</v>
       </c>
       <c r="E16" s="3"/>
@@ -3177,12 +3197,12 @@
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="33" t="s">
         <v>117</v>
       </c>
       <c r="E17" s="3"/>
@@ -3207,12 +3227,12 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="33" t="s">
         <v>118</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -3243,16 +3263,16 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="22" t="s">
         <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="17" t="s">
         <v>92</v>
       </c>
       <c r="E19" s="3"/>
@@ -3277,12 +3297,12 @@
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="28"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="17" t="s">
         <v>229</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -3311,12 +3331,12 @@
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="28"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="14" t="s">
         <v>94</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -3351,18 +3371,18 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="28"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="14" t="s">
         <v>151</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="31" t="s">
         <v>150</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -3395,12 +3415,12 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="28"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="33" t="s">
         <v>181</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -3439,12 +3459,12 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="28"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="33" t="s">
         <v>184</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -3479,12 +3499,12 @@
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="28"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="33" t="s">
         <v>185</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -3519,12 +3539,12 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="29"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="33" t="s">
         <v>186</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -3559,16 +3579,16 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="22" t="s">
         <v>179</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="32" t="s">
         <v>203</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -3607,12 +3627,12 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="28"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="34" t="s">
         <v>99</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -3651,12 +3671,12 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="28"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="35" t="s">
         <v>93</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -3695,14 +3715,14 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="28"/>
-      <c r="B30" s="30" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="22" t="s">
         <v>84</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="14" t="s">
         <v>133</v>
       </c>
       <c r="E30" s="3"/>
@@ -3731,12 +3751,12 @@
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="28"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="14" t="s">
         <v>108</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -3775,8 +3795,8 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="28"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="3" t="s">
         <v>166</v>
       </c>
@@ -3819,8 +3839,8 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="28"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="3" t="s">
         <v>167</v>
       </c>
@@ -3853,8 +3873,8 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="28"/>
-      <c r="B34" s="31"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="3" t="s">
         <v>168</v>
       </c>
@@ -3897,8 +3917,8 @@
       <c r="P34" s="3"/>
     </row>
     <row r="35" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="29"/>
-      <c r="B35" s="32"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="3" t="s">
         <v>169</v>
       </c>
@@ -3935,10 +3955,10 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="18" t="s">
         <v>180</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -3985,8 +4005,8 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="3" t="s">
         <v>154</v>
       </c>
@@ -4031,8 +4051,8 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="3" t="s">
         <v>155</v>
       </c>
@@ -4075,8 +4095,8 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="3" t="s">
         <v>156</v>
       </c>
@@ -4160,7 +4180,7 @@
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="16" t="s">
         <v>227</v>
       </c>
       <c r="E42" s="3"/>
@@ -4180,7 +4200,7 @@
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="16" t="s">
         <v>228</v>
       </c>
       <c r="E43" s="3"/>
@@ -4450,16 +4470,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="A6:A18"/>
-    <mergeCell ref="B6:B18"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A27:A35"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="L4:O4"/>
@@ -4476,6 +4486,16 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="A6:A18"/>
+    <mergeCell ref="B6:B18"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A27:A35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/20220531_FunctionalDescription 진수빈.xlsx
+++ b/20220531_FunctionalDescription 진수빈.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anfzh\Desktop\IDEA\spring_framework\CheersMall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180B8946-159C-4F80-8929-A9482C27ED57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B116C0-8298-427E-B35A-05EC52FCA57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="969" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2201,45 +2201,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2254,6 +2215,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2617,8 +2617,8 @@
   </sheetPr>
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2642,40 +2642,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="39.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
     </row>
     <row r="2" spans="1:16" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="E2" s="30" t="s">
+      <c r="B2" s="24"/>
+      <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="30"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
@@ -2683,61 +2683,61 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21" t="s">
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
       <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
@@ -2750,13 +2750,13 @@
       <c r="O5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="21"/>
+      <c r="P5" s="25"/>
     </row>
     <row r="6" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="30" t="s">
         <v>179</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2791,8 +2791,8 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
@@ -2831,8 +2831,8 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
@@ -2873,8 +2873,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="3" t="s">
         <v>48</v>
       </c>
@@ -2913,8 +2913,8 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="3" t="s">
         <v>54</v>
       </c>
@@ -2957,8 +2957,8 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="3" t="s">
         <v>56</v>
       </c>
@@ -2997,8 +2997,8 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="3" t="s">
         <v>60</v>
       </c>
@@ -3041,8 +3041,8 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
@@ -3081,8 +3081,8 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="3" t="s">
         <v>70</v>
       </c>
@@ -3115,8 +3115,8 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="3" t="s">
         <v>74</v>
       </c>
@@ -3159,8 +3159,8 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="3" t="s">
         <v>79</v>
       </c>
@@ -3197,12 +3197,12 @@
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="20" t="s">
         <v>117</v>
       </c>
       <c r="E17" s="3"/>
@@ -3227,12 +3227,12 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="20" t="s">
         <v>118</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -3263,10 +3263,10 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -3297,8 +3297,8 @@
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="19"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="3" t="s">
         <v>171</v>
       </c>
@@ -3331,8 +3331,8 @@
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="19"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="3" t="s">
         <v>172</v>
       </c>
@@ -3371,8 +3371,8 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="19"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="3" t="s">
         <v>173</v>
       </c>
@@ -3382,7 +3382,7 @@
       <c r="E22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="18" t="s">
         <v>150</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -3415,12 +3415,12 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="19"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="20" t="s">
         <v>181</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -3459,12 +3459,12 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="19"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="20" t="s">
         <v>184</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -3499,12 +3499,12 @@
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="19"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="20" t="s">
         <v>185</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -3539,12 +3539,12 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="20"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="20" t="s">
         <v>186</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -3579,16 +3579,16 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="33" t="s">
         <v>179</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="19" t="s">
         <v>203</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -3627,12 +3627,12 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="19"/>
-      <c r="B28" s="23"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="21" t="s">
         <v>99</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -3671,12 +3671,12 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="19"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="22" t="s">
         <v>93</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -3715,8 +3715,8 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="19"/>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -3751,8 +3751,8 @@
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="19"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="3" t="s">
         <v>165</v>
       </c>
@@ -3795,12 +3795,12 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="19"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="14" t="s">
         <v>140</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -3839,8 +3839,8 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="19"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="3" t="s">
         <v>167</v>
       </c>
@@ -3873,8 +3873,8 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="19"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="3" t="s">
         <v>168</v>
       </c>
@@ -3917,8 +3917,8 @@
       <c r="P34" s="3"/>
     </row>
     <row r="35" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="20"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="3" t="s">
         <v>169</v>
       </c>
@@ -3955,10 +3955,10 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="30" t="s">
         <v>180</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -4005,8 +4005,8 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="3" t="s">
         <v>154</v>
       </c>
@@ -4051,8 +4051,8 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="3" t="s">
         <v>155</v>
       </c>
@@ -4095,8 +4095,8 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="3" t="s">
         <v>156</v>
       </c>
@@ -4470,6 +4470,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="A6:A18"/>
+    <mergeCell ref="B6:B18"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A27:A35"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="L4:O4"/>
@@ -4486,16 +4496,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="A6:A18"/>
-    <mergeCell ref="B6:B18"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A27:A35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/20220531_FunctionalDescription 진수빈.xlsx
+++ b/20220531_FunctionalDescription 진수빈.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anfzh\Desktop\IDEA\spring_framework\CheersMall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B116C0-8298-427E-B35A-05EC52FCA57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43E4EBB-E966-4787-8475-65CED791C30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="969" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2216,14 +2216,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2235,24 +2253,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2617,8 +2617,8 @@
   </sheetPr>
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2642,40 +2642,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="39.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
     </row>
     <row r="2" spans="1:16" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="E2" s="29" t="s">
+      <c r="B2" s="31"/>
+      <c r="E2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="29"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
@@ -2683,61 +2683,61 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25" t="s">
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
@@ -2750,13 +2750,13 @@
       <c r="O5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="25"/>
+      <c r="P5" s="26"/>
     </row>
     <row r="6" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="23" t="s">
         <v>179</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2791,8 +2791,8 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
@@ -2831,8 +2831,8 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
@@ -2873,8 +2873,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="3" t="s">
         <v>48</v>
       </c>
@@ -2913,8 +2913,8 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="3" t="s">
         <v>54</v>
       </c>
@@ -2957,8 +2957,8 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="3" t="s">
         <v>56</v>
       </c>
@@ -2997,8 +2997,8 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="3" t="s">
         <v>60</v>
       </c>
@@ -3041,8 +3041,8 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
@@ -3081,8 +3081,8 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="3" t="s">
         <v>70</v>
       </c>
@@ -3115,8 +3115,8 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="3" t="s">
         <v>74</v>
       </c>
@@ -3159,8 +3159,8 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="3" t="s">
         <v>79</v>
       </c>
@@ -3197,8 +3197,8 @@
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="3" t="s">
         <v>119</v>
       </c>
@@ -3227,8 +3227,8 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="3" t="s">
         <v>114</v>
       </c>
@@ -3263,10 +3263,10 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="27" t="s">
         <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -3297,8 +3297,8 @@
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="31"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="3" t="s">
         <v>171</v>
       </c>
@@ -3331,8 +3331,8 @@
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="31"/>
-      <c r="B21" s="34"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="3" t="s">
         <v>172</v>
       </c>
@@ -3371,8 +3371,8 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="31"/>
-      <c r="B22" s="34"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="3" t="s">
         <v>173</v>
       </c>
@@ -3415,8 +3415,8 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="31"/>
-      <c r="B23" s="34"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="3" t="s">
         <v>174</v>
       </c>
@@ -3459,8 +3459,8 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="31"/>
-      <c r="B24" s="34"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="3" t="s">
         <v>175</v>
       </c>
@@ -3499,8 +3499,8 @@
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="31"/>
-      <c r="B25" s="34"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="3" t="s">
         <v>176</v>
       </c>
@@ -3539,8 +3539,8 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="32"/>
-      <c r="B26" s="35"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="3" t="s">
         <v>177</v>
       </c>
@@ -3579,10 +3579,10 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="27" t="s">
         <v>179</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -3627,8 +3627,8 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="31"/>
-      <c r="B28" s="34"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="3" t="s">
         <v>162</v>
       </c>
@@ -3671,8 +3671,8 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="31"/>
-      <c r="B29" s="34"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="3" t="s">
         <v>163</v>
       </c>
@@ -3715,8 +3715,8 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="31"/>
-      <c r="B30" s="33" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="27" t="s">
         <v>84</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -3751,8 +3751,8 @@
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="31"/>
-      <c r="B31" s="34"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="3" t="s">
         <v>165</v>
       </c>
@@ -3795,8 +3795,8 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="31"/>
-      <c r="B32" s="34"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="3" t="s">
         <v>166</v>
       </c>
@@ -3839,12 +3839,12 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="31"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="14" t="s">
         <v>146</v>
       </c>
       <c r="E33" s="3"/>
@@ -3873,12 +3873,12 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="31"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="14" t="s">
         <v>110</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -3917,8 +3917,8 @@
       <c r="P34" s="3"/>
     </row>
     <row r="35" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="32"/>
-      <c r="B35" s="35"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="3" t="s">
         <v>169</v>
       </c>
@@ -3955,10 +3955,10 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="23" t="s">
         <v>180</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -4005,8 +4005,8 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="3" t="s">
         <v>154</v>
       </c>
@@ -4051,8 +4051,8 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="3" t="s">
         <v>155</v>
       </c>
@@ -4095,8 +4095,8 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="3" t="s">
         <v>156</v>
       </c>
@@ -4470,16 +4470,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="A6:A18"/>
-    <mergeCell ref="B6:B18"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A27:A35"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="L4:O4"/>
@@ -4496,6 +4486,16 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="A6:A18"/>
+    <mergeCell ref="B6:B18"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A27:A35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/20220531_FunctionalDescription 진수빈.xlsx
+++ b/20220531_FunctionalDescription 진수빈.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anfzh\Desktop\IDEA\spring_framework\CheersMall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43E4EBB-E966-4787-8475-65CED791C30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C8D282-71F7-4DE1-80ED-B79C00C92367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="969" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2216,32 +2216,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2253,6 +2235,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2618,7 +2618,7 @@
   <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:D34"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2642,40 +2642,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="39.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
     </row>
     <row r="2" spans="1:16" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="E2" s="35" t="s">
+      <c r="B2" s="24"/>
+      <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="35"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
@@ -2683,61 +2683,61 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26" t="s">
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
       <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
@@ -2750,13 +2750,13 @@
       <c r="O5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="26"/>
+      <c r="P5" s="25"/>
     </row>
     <row r="6" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="30" t="s">
         <v>179</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2791,8 +2791,8 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
@@ -2831,8 +2831,8 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
@@ -2873,8 +2873,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="3" t="s">
         <v>48</v>
       </c>
@@ -2913,8 +2913,8 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="3" t="s">
         <v>54</v>
       </c>
@@ -2957,8 +2957,8 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="3" t="s">
         <v>56</v>
       </c>
@@ -2997,8 +2997,8 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="3" t="s">
         <v>60</v>
       </c>
@@ -3041,8 +3041,8 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
@@ -3081,8 +3081,8 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="3" t="s">
         <v>70</v>
       </c>
@@ -3115,8 +3115,8 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="3" t="s">
         <v>74</v>
       </c>
@@ -3159,8 +3159,8 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="3" t="s">
         <v>79</v>
       </c>
@@ -3197,8 +3197,8 @@
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="3" t="s">
         <v>119</v>
       </c>
@@ -3227,8 +3227,8 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="3" t="s">
         <v>114</v>
       </c>
@@ -3263,10 +3263,10 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -3297,8 +3297,8 @@
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="24"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="3" t="s">
         <v>171</v>
       </c>
@@ -3331,8 +3331,8 @@
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="24"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="3" t="s">
         <v>172</v>
       </c>
@@ -3371,8 +3371,8 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="24"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="3" t="s">
         <v>173</v>
       </c>
@@ -3415,8 +3415,8 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="24"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="3" t="s">
         <v>174</v>
       </c>
@@ -3459,8 +3459,8 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="24"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="3" t="s">
         <v>175</v>
       </c>
@@ -3499,8 +3499,8 @@
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="24"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="3" t="s">
         <v>176</v>
       </c>
@@ -3539,8 +3539,8 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="25"/>
-      <c r="B26" s="29"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="3" t="s">
         <v>177</v>
       </c>
@@ -3579,10 +3579,10 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="33" t="s">
         <v>179</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -3627,8 +3627,8 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="24"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="3" t="s">
         <v>162</v>
       </c>
@@ -3671,8 +3671,8 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="24"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="3" t="s">
         <v>163</v>
       </c>
@@ -3715,8 +3715,8 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="24"/>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -3751,8 +3751,8 @@
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="24"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="3" t="s">
         <v>165</v>
       </c>
@@ -3795,8 +3795,8 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="24"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="3" t="s">
         <v>166</v>
       </c>
@@ -3839,8 +3839,8 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="24"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="3" t="s">
         <v>167</v>
       </c>
@@ -3873,8 +3873,8 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="24"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="3" t="s">
         <v>168</v>
       </c>
@@ -3917,12 +3917,12 @@
       <c r="P34" s="3"/>
     </row>
     <row r="35" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="25"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="14" t="s">
         <v>109</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -3955,10 +3955,10 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="30" t="s">
         <v>180</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -4005,8 +4005,8 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="3" t="s">
         <v>154</v>
       </c>
@@ -4051,8 +4051,8 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="3" t="s">
         <v>155</v>
       </c>
@@ -4095,8 +4095,8 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="3" t="s">
         <v>156</v>
       </c>
@@ -4470,6 +4470,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="A6:A18"/>
+    <mergeCell ref="B6:B18"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A27:A35"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="L4:O4"/>
@@ -4486,16 +4496,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="A6:A18"/>
-    <mergeCell ref="B6:B18"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A27:A35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/20220531_FunctionalDescription 진수빈.xlsx
+++ b/20220531_FunctionalDescription 진수빈.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anfzh\Desktop\IDEA\spring_framework\CheersMall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C8D282-71F7-4DE1-80ED-B79C00C92367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502C60B1-42AE-49E4-AC8B-2E649D1F360E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="969" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="25760" windowHeight="15440" tabRatio="969" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Functional_Description" sheetId="36" r:id="rId1"/>
@@ -2146,7 +2146,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2216,6 +2216,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2223,9 +2244,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2237,23 +2255,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2617,8 +2620,8 @@
   </sheetPr>
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2642,40 +2645,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="39.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
     </row>
     <row r="2" spans="1:16" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="E2" s="29" t="s">
+      <c r="B2" s="31"/>
+      <c r="E2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="29"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
@@ -2683,61 +2686,61 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25" t="s">
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
@@ -2750,13 +2753,13 @@
       <c r="O5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="25"/>
+      <c r="P5" s="26"/>
     </row>
     <row r="6" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="23" t="s">
         <v>179</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2791,8 +2794,8 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
@@ -2831,8 +2834,8 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
@@ -2873,8 +2876,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="3" t="s">
         <v>48</v>
       </c>
@@ -2913,8 +2916,8 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="3" t="s">
         <v>54</v>
       </c>
@@ -2957,8 +2960,8 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="3" t="s">
         <v>56</v>
       </c>
@@ -2997,8 +3000,8 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="3" t="s">
         <v>60</v>
       </c>
@@ -3041,8 +3044,8 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
@@ -3081,8 +3084,8 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="3" t="s">
         <v>70</v>
       </c>
@@ -3115,8 +3118,8 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="3" t="s">
         <v>74</v>
       </c>
@@ -3159,8 +3162,8 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="3" t="s">
         <v>79</v>
       </c>
@@ -3197,12 +3200,12 @@
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="36" t="s">
         <v>117</v>
       </c>
       <c r="E17" s="3"/>
@@ -3227,12 +3230,12 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="14" t="s">
         <v>118</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -3263,10 +3266,10 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="27" t="s">
         <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -3297,8 +3300,8 @@
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="31"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="3" t="s">
         <v>171</v>
       </c>
@@ -3331,8 +3334,8 @@
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="31"/>
-      <c r="B21" s="34"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="3" t="s">
         <v>172</v>
       </c>
@@ -3371,8 +3374,8 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="31"/>
-      <c r="B22" s="34"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="3" t="s">
         <v>173</v>
       </c>
@@ -3415,8 +3418,8 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="31"/>
-      <c r="B23" s="34"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="3" t="s">
         <v>174</v>
       </c>
@@ -3459,8 +3462,8 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="31"/>
-      <c r="B24" s="34"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="3" t="s">
         <v>175</v>
       </c>
@@ -3499,8 +3502,8 @@
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="31"/>
-      <c r="B25" s="34"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="3" t="s">
         <v>176</v>
       </c>
@@ -3539,8 +3542,8 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="32"/>
-      <c r="B26" s="35"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="3" t="s">
         <v>177</v>
       </c>
@@ -3579,10 +3582,10 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="27" t="s">
         <v>179</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -3627,8 +3630,8 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="31"/>
-      <c r="B28" s="34"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="3" t="s">
         <v>162</v>
       </c>
@@ -3671,8 +3674,8 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="31"/>
-      <c r="B29" s="34"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="3" t="s">
         <v>163</v>
       </c>
@@ -3715,8 +3718,8 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="31"/>
-      <c r="B30" s="33" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="27" t="s">
         <v>84</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -3751,8 +3754,8 @@
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="31"/>
-      <c r="B31" s="34"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="3" t="s">
         <v>165</v>
       </c>
@@ -3795,8 +3798,8 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="31"/>
-      <c r="B32" s="34"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="3" t="s">
         <v>166</v>
       </c>
@@ -3839,8 +3842,8 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="31"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="3" t="s">
         <v>167</v>
       </c>
@@ -3873,8 +3876,8 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="31"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="3" t="s">
         <v>168</v>
       </c>
@@ -3917,8 +3920,8 @@
       <c r="P34" s="3"/>
     </row>
     <row r="35" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="32"/>
-      <c r="B35" s="35"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="3" t="s">
         <v>169</v>
       </c>
@@ -3955,10 +3958,10 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="23" t="s">
         <v>180</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -4005,8 +4008,8 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="3" t="s">
         <v>154</v>
       </c>
@@ -4051,8 +4054,8 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="3" t="s">
         <v>155</v>
       </c>
@@ -4095,8 +4098,8 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="3" t="s">
         <v>156</v>
       </c>
@@ -4470,16 +4473,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="A6:A18"/>
-    <mergeCell ref="B6:B18"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A27:A35"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="L4:O4"/>
@@ -4496,6 +4489,16 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="A6:A18"/>
+    <mergeCell ref="B6:B18"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A27:A35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/20220531_FunctionalDescription 진수빈.xlsx
+++ b/20220531_FunctionalDescription 진수빈.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anfzh\Desktop\IDEA\spring_framework\CheersMall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502C60B1-42AE-49E4-AC8B-2E649D1F360E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578C4117-9B8D-4EE8-866F-097A1FA4E80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="25760" windowHeight="15440" tabRatio="969" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="969" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Functional_Description" sheetId="36" r:id="rId1"/>
@@ -2216,6 +2216,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2225,9 +2249,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2236,27 +2257,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2620,8 +2620,8 @@
   </sheetPr>
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2645,40 +2645,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="39.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:16" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="E2" s="35" t="s">
+      <c r="B2" s="25"/>
+      <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="35"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
@@ -2692,7 +2692,7 @@
       <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="26" t="s">
@@ -2704,13 +2704,13 @@
       <c r="F4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="28" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="27" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="26" t="s">
@@ -2732,11 +2732,11 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
-      <c r="C5" s="32"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
-      <c r="G5" s="34"/>
+      <c r="G5" s="29"/>
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
@@ -2756,10 +2756,10 @@
       <c r="P5" s="26"/>
     </row>
     <row r="6" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="31" t="s">
         <v>179</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2794,8 +2794,8 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
@@ -2834,8 +2834,8 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
@@ -2876,8 +2876,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="3" t="s">
         <v>48</v>
       </c>
@@ -2916,8 +2916,8 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="3" t="s">
         <v>54</v>
       </c>
@@ -2960,8 +2960,8 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="3" t="s">
         <v>56</v>
       </c>
@@ -3000,8 +3000,8 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="3" t="s">
         <v>60</v>
       </c>
@@ -3044,8 +3044,8 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
@@ -3084,8 +3084,8 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="3" t="s">
         <v>70</v>
       </c>
@@ -3118,8 +3118,8 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="3" t="s">
         <v>74</v>
       </c>
@@ -3162,8 +3162,8 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="3" t="s">
         <v>79</v>
       </c>
@@ -3200,12 +3200,12 @@
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="23" t="s">
         <v>117</v>
       </c>
       <c r="E17" s="3"/>
@@ -3230,8 +3230,8 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="3" t="s">
         <v>114</v>
       </c>
@@ -3266,10 +3266,10 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="34" t="s">
         <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -3300,8 +3300,8 @@
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="24"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="3" t="s">
         <v>171</v>
       </c>
@@ -3334,8 +3334,8 @@
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="24"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="3" t="s">
         <v>172</v>
       </c>
@@ -3374,8 +3374,8 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="24"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="3" t="s">
         <v>173</v>
       </c>
@@ -3418,8 +3418,8 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="24"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="3" t="s">
         <v>174</v>
       </c>
@@ -3462,8 +3462,8 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="24"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="3" t="s">
         <v>175</v>
       </c>
@@ -3502,8 +3502,8 @@
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="24"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="3" t="s">
         <v>176</v>
       </c>
@@ -3542,8 +3542,8 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="25"/>
-      <c r="B26" s="29"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="3" t="s">
         <v>177</v>
       </c>
@@ -3582,10 +3582,10 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="34" t="s">
         <v>179</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -3630,8 +3630,8 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="24"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="3" t="s">
         <v>162</v>
       </c>
@@ -3674,8 +3674,8 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="24"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="3" t="s">
         <v>163</v>
       </c>
@@ -3718,8 +3718,8 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="24"/>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="32"/>
+      <c r="B30" s="34" t="s">
         <v>84</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -3754,8 +3754,8 @@
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="24"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="3" t="s">
         <v>165</v>
       </c>
@@ -3798,8 +3798,8 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="24"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="3" t="s">
         <v>166</v>
       </c>
@@ -3842,8 +3842,8 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="24"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="3" t="s">
         <v>167</v>
       </c>
@@ -3876,8 +3876,8 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="24"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="3" t="s">
         <v>168</v>
       </c>
@@ -3920,8 +3920,8 @@
       <c r="P34" s="3"/>
     </row>
     <row r="35" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="25"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="3" t="s">
         <v>169</v>
       </c>
@@ -3958,16 +3958,16 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="31" t="s">
         <v>180</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="14" t="s">
         <v>111</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -4008,12 +4008,12 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="14" t="s">
         <v>113</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -4054,12 +4054,12 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="15" t="s">
         <v>211</v>
       </c>
       <c r="E38" s="3"/>
@@ -4098,12 +4098,12 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="14" t="s">
         <v>112</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -4473,6 +4473,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="A6:A18"/>
+    <mergeCell ref="B6:B18"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A27:A35"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="L4:O4"/>
@@ -4489,16 +4499,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="A6:A18"/>
-    <mergeCell ref="B6:B18"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A27:A35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/20220531_FunctionalDescription 진수빈.xlsx
+++ b/20220531_FunctionalDescription 진수빈.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anfzh\Desktop\IDEA\spring_framework\CheersMall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578C4117-9B8D-4EE8-866F-097A1FA4E80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F68B981-076A-4182-B744-1F60E516C417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="969" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2015,7 +2015,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2043,12 +2043,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2146,7 +2140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2207,9 +2201,6 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2219,14 +2210,32 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2238,24 +2247,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2620,8 +2611,8 @@
   </sheetPr>
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:E41"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2645,40 +2636,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="39.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
     </row>
     <row r="2" spans="1:16" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="E2" s="30" t="s">
+      <c r="B2" s="31"/>
+      <c r="E2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="30"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
@@ -2692,7 +2683,7 @@
       <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="26" t="s">
@@ -2704,13 +2695,13 @@
       <c r="F4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="33" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="32" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="26" t="s">
@@ -2732,11 +2723,11 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
-      <c r="G5" s="29"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
@@ -2756,10 +2747,10 @@
       <c r="P5" s="26"/>
     </row>
     <row r="6" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="23" t="s">
         <v>179</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2794,8 +2785,8 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
@@ -2834,8 +2825,8 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
@@ -2876,8 +2867,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="3" t="s">
         <v>48</v>
       </c>
@@ -2916,8 +2907,8 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="3" t="s">
         <v>54</v>
       </c>
@@ -2960,8 +2951,8 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="3" t="s">
         <v>56</v>
       </c>
@@ -3000,8 +2991,8 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="3" t="s">
         <v>60</v>
       </c>
@@ -3044,8 +3035,8 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
@@ -3084,8 +3075,8 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="3" t="s">
         <v>70</v>
       </c>
@@ -3118,8 +3109,8 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="3" t="s">
         <v>74</v>
       </c>
@@ -3162,8 +3153,8 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="3" t="s">
         <v>79</v>
       </c>
@@ -3200,12 +3191,12 @@
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>117</v>
       </c>
       <c r="E17" s="3"/>
@@ -3230,8 +3221,8 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="3" t="s">
         <v>114</v>
       </c>
@@ -3266,10 +3257,10 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="27" t="s">
         <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -3300,8 +3291,8 @@
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="32"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="3" t="s">
         <v>171</v>
       </c>
@@ -3334,8 +3325,8 @@
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="32"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="3" t="s">
         <v>172</v>
       </c>
@@ -3374,8 +3365,8 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="32"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="3" t="s">
         <v>173</v>
       </c>
@@ -3418,12 +3409,12 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="32"/>
-      <c r="B23" s="35"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="14" t="s">
         <v>181</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -3462,12 +3453,12 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="32"/>
-      <c r="B24" s="35"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="14" t="s">
         <v>184</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -3502,12 +3493,12 @@
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="32"/>
-      <c r="B25" s="35"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="14" t="s">
         <v>185</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -3542,12 +3533,12 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="33"/>
-      <c r="B26" s="36"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="14" t="s">
         <v>186</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -3582,10 +3573,10 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="27" t="s">
         <v>179</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -3630,12 +3621,12 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="32"/>
-      <c r="B28" s="35"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="20" t="s">
         <v>99</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -3674,12 +3665,12 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="32"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="21" t="s">
         <v>93</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -3718,8 +3709,8 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="32"/>
-      <c r="B30" s="34" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="27" t="s">
         <v>84</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -3754,8 +3745,8 @@
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="32"/>
-      <c r="B31" s="35"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="3" t="s">
         <v>165</v>
       </c>
@@ -3798,8 +3789,8 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="32"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="3" t="s">
         <v>166</v>
       </c>
@@ -3842,8 +3833,8 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="32"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="3" t="s">
         <v>167</v>
       </c>
@@ -3876,8 +3867,8 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="32"/>
-      <c r="B34" s="35"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="3" t="s">
         <v>168</v>
       </c>
@@ -3920,8 +3911,8 @@
       <c r="P34" s="3"/>
     </row>
     <row r="35" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="33"/>
-      <c r="B35" s="36"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="3" t="s">
         <v>169</v>
       </c>
@@ -3958,10 +3949,10 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="23" t="s">
         <v>180</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -4008,8 +3999,8 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="3" t="s">
         <v>154</v>
       </c>
@@ -4054,8 +4045,8 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="3" t="s">
         <v>155</v>
       </c>
@@ -4098,8 +4089,8 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="3" t="s">
         <v>156</v>
       </c>
@@ -4473,16 +4464,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="A6:A18"/>
-    <mergeCell ref="B6:B18"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A27:A35"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="L4:O4"/>
@@ -4499,6 +4480,16 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="A6:A18"/>
+    <mergeCell ref="B6:B18"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A27:A35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/20220531_FunctionalDescription 진수빈.xlsx
+++ b/20220531_FunctionalDescription 진수빈.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anfzh\Desktop\IDEA\spring_framework\CheersMall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F68B981-076A-4182-B744-1F60E516C417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561F5CCA-E613-433A-92DB-CCC816CB124A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="969" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -973,7 +973,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="270">
   <si>
     <t>Functional Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1131,33 +1131,9 @@
     <t>String</t>
   </si>
   <si>
-    <t>memberId</t>
-  </si>
-  <si>
-    <t>checkResult</t>
-  </si>
-  <si>
     <t>ajax(ResponseBody)</t>
   </si>
   <si>
-    <t>회원 목록 조회</t>
-  </si>
-  <si>
-    <t>MMF004</t>
-  </si>
-  <si>
-    <t>/member/findAll</t>
-  </si>
-  <si>
-    <t>findAll</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>memberList</t>
-  </si>
-  <si>
     <t>List&lt;MemberDTO&gt;</t>
   </si>
   <si>
@@ -1176,9 +1152,6 @@
     <t>delete</t>
   </si>
   <si>
-    <t>redirect:/findAll</t>
-  </si>
-  <si>
     <t>MMF007</t>
   </si>
   <si>
@@ -1197,9 +1170,6 @@
     <t>update</t>
   </si>
   <si>
-    <t>updateMember</t>
-  </si>
-  <si>
     <t>MMF008</t>
   </si>
   <si>
@@ -1207,9 +1177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>redirect:/detail?id=</t>
-  </si>
-  <si>
     <t>MMF009</t>
   </si>
   <si>
@@ -1244,9 +1211,6 @@
   </si>
   <si>
     <t>logout</t>
-  </si>
-  <si>
-    <t>index</t>
   </si>
   <si>
     <t>댓글 관리
@@ -1257,10 +1221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>session.loginMemberId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/member/login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1273,26 +1233,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자로그인요청</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>글 조회수 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원목록조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1301,22 +1245,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paging</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>글검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1325,10 +1257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pageDTO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PageDTO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1337,10 +1265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>findList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CommentDTO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1349,22 +1273,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>댓글 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1373,9 +1285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MMF015</t>
-  </si>
-  <si>
     <t>개인정보 수정화면 요청</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1388,21 +1297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장바구니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MMF014</t>
-  </si>
-  <si>
-    <t>/member/cart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/member/kkopay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>itemDTO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1415,26 +1309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>memberKkoPay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberCartList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberCart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdminController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin/userFindAll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>userFndAll</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1443,14 +1317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>memberList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품등록화면요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ItemDTO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1467,58 +1333,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>itemList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>itemSave</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품상세조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>itemId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>itemUpdateForm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>itemUpadateForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품수정화면요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>itemUpdate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>redirect:/admin/updateForm?itemid=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>itemDelete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/admin/itemList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1537,21 +1371,6 @@
     <t>CMF003</t>
   </si>
   <si>
-    <t>CMF004</t>
-  </si>
-  <si>
-    <t>/admin/findItemSaleCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>findItemSaleCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SaleCountList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품게시판관리(ItemBoard Management)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1625,14 +1444,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/admin/rankingGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rankingGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>골드랭킹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1645,22 +1456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/admin/rankingSilver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin/rankingbronze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rankingSilver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rankingBronze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>comment/save</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1669,119 +1464,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hitsAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ItemBoard/paging</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ItemBoard/search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemBoardContoroller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Item</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>oard/pagingList</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemBoard/findAll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;ItemBoardDTO&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Itemboard/hits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemBoard/hits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemBoradDTO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 페이징 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/itemBoard/updateForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemBoard/saveForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/itemBoard/save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/itemBoard/detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/itemBoard/update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/itemBoard/delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CoamnetController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>댓글 수정화면 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment/updateForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>comment/update</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>commentUpdateForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>commentDelete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1798,10 +1488,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>commentListUpdate?page&amp;id=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CommetDTO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1818,31 +1504,480 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mypage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MemberDTO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cheers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자 로그인화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/member/admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicateMemberId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheersMemberId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderDTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/cheersMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/updateForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberDTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redirect:/member/updateeForm?cheersMemberId?=+memberDTO.getcheersMemberId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/loginForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/loginForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;&gt;ItemDTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/userFindAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/cheersMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheersMall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/mypage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/userFindAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/item/ranking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemContoroller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rakinPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/rankingList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rankingList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/item/rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rankingAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redirect:/item/ranking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베스트 상품 페이징 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>육류 상품 페이징 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해산물 상품 페이징 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야식 상품 페이징 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀키트 상품 페이징 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Item/bestPaging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Item/meatPaging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Item/seaFoodPaging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Item/nightMealPaging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Item/mealKitPaging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bestPaging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meatPaging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seaFoodPaging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nightMealPaging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mealKitPaging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/bestPagingList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/meatagingList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/seaFoodPagingList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/nightMealPagingList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/mealKitPagingList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/item/cartList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품입고 화면요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품입고 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/item/saveForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/itemSaveForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/item/saveResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redirect:/member/admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품수정 화면요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품수정 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/item/updateFom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/itemUpdateForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/item/itemUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/item/itemDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 아이템 중복체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 상품저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 플러스 수량버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 마이너스 수량버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 상품삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/item/itemCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CartDTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartDTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redirect:/item/itemDetail?itemId=+ cartDTO.getItemId()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/item/cartDuplicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemDuplicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">장바구니 중복시 수량증가 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/itme/cartCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartLIst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/userCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartDTOList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;CartDTO&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/item/plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/item/minus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/item/cartItemDrop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/item/kkopay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkoPay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheersMemberId,cartId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/kkoPay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/itme/kkoPayCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkoPayCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     CartDTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제후 재고와 판매량 조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADS009</t>
+  </si>
+  <si>
+    <t>ADS010</t>
+  </si>
+  <si>
+    <t>ADS011</t>
+  </si>
+  <si>
+    <t>ADS012</t>
+  </si>
+  <si>
+    <t>ADS013</t>
+  </si>
+  <si>
+    <t>IBMF04</t>
+  </si>
+  <si>
+    <t>IBMF11</t>
+  </si>
+  <si>
+    <t>IBMF12</t>
+  </si>
+  <si>
+    <t>IBMF13</t>
+  </si>
+  <si>
+    <t>IBMF14</t>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBMF15</t>
+  </si>
+  <si>
+    <t>상품검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/item/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;CommentDTO&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentDTOList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1850,7 +1985,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2008,14 +2143,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2030,24 +2173,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2107,6 +2238,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2140,7 +2284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2183,59 +2327,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2247,6 +2349,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2609,10 +2768,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2626,9 +2785,9 @@
     <col min="7" max="7" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.08203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.58203125" customWidth="1"/>
+    <col min="10" max="10" width="25.25" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.75" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.08203125" customWidth="1"/>
     <col min="13" max="13" width="36.25" customWidth="1"/>
     <col min="14" max="14" width="22.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
@@ -2636,40 +2795,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="39.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:16" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="E2" s="35" t="s">
+      <c r="B2" s="16"/>
+      <c r="E2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="35"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
@@ -2677,61 +2836,61 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26" t="s">
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
@@ -2744,24 +2903,24 @@
       <c r="O5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="26"/>
+      <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>179</v>
+      <c r="B6" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>26</v>
@@ -2778,19 +2937,19 @@
         <v>29</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="29" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -2818,19 +2977,19 @@
         <v>29</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="29" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -2849,37 +3008,37 @@
         <v>42</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>47</v>
+      <c r="D9" s="29" t="s">
+        <v>145</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>26</v>
@@ -2888,38 +3047,42 @@
         <v>27</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="L9" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>221</v>
+        <v>48</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>90</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>222</v>
+        <v>49</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>26</v>
@@ -2928,42 +3091,38 @@
         <v>27</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>223</v>
+        <v>50</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>226</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>116</v>
+        <v>51</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>26</v>
@@ -2972,1498 +3131,2067 @@
         <v>27</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>115</v>
+        <v>57</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>58</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="F14" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="L14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
       <c r="C15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>72</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="F16" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="I16" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>117</v>
+        <v>122</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>149</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>118</v>
+        <v>123</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>77</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="M18" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>84</v>
-      </c>
+      <c r="A19" s="23"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>86</v>
+        <v>124</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="24"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>229</v>
+        <v>125</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>132</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="3"/>
+        <v>175</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+        <v>177</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="24"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>94</v>
+        <v>126</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>133</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="L21" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="24"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>151</v>
+        <v>127</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="18" t="s">
-        <v>150</v>
+      <c r="F22" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="N22" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="23"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="29" t="s">
         <v>135</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="24"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>181</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>136</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="24"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="I24" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="24"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>185</v>
+        <v>254</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>204</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="25"/>
-      <c r="B26" s="29"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
+        <v>212</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>179</v>
-      </c>
+      <c r="A27" s="23"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>203</v>
+        <v>256</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>210</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="K27" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="24"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>99</v>
+        <v>257</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>86</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>199</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="24"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="C29" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>93</v>
+        <v>112</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>182</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="24"/>
-      <c r="B30" s="27" t="s">
-        <v>84</v>
-      </c>
+      <c r="A30" s="23"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="F30" s="3" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+        <v>193</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="L30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="24"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>108</v>
+        <v>114</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>184</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="24"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>140</v>
+        <v>258</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>185</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" spans="1:16" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="24"/>
-      <c r="B33" s="28"/>
+    <row r="33" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="23"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="F33" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H33" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I33" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+      <c r="J33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="L33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+        <v>201</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="24"/>
-      <c r="B34" s="28"/>
+    <row r="34" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="23"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>110</v>
+        <v>116</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>216</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>136</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="25"/>
-      <c r="B35" s="29"/>
+    <row r="35" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="23"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>109</v>
+        <v>117</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>215</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>149</v>
+        <v>227</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M35" s="3"/>
+      <c r="M35" s="3" t="s">
+        <v>228</v>
+      </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="36" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>180</v>
-      </c>
+      <c r="P35" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="23"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>111</v>
+        <v>118</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>229</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>107</v>
+        <v>224</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
+        <v>225</v>
+      </c>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="23"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>113</v>
+        <v>119</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>217</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M37" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="23"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="N37" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="F38" s="3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>29</v>
+        <v>239</v>
       </c>
       <c r="M38" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="23"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D39" s="31" t="s">
         <v>219</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>29</v>
+        <v>239</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="N39" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="23"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="O39" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
     </row>
-    <row r="41" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
+    <row r="41" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="23"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>248</v>
+      </c>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
     </row>
-    <row r="42" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
+    <row r="42" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="23"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
+      <c r="P42" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="24"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="P43" s="3"/>
     </row>
-    <row r="44" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-    </row>
-    <row r="46" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-    </row>
-    <row r="47" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
+    <row r="44" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="5"/>
+      <c r="D47" s="29"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-    </row>
-    <row r="48" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="32"/>
+    </row>
+    <row r="48" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="5"/>
+      <c r="D48" s="29"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-    </row>
-    <row r="49" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+    </row>
+    <row r="49" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="8"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="5"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-    </row>
-    <row r="50" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+    </row>
+    <row r="50" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="10"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="3"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
       <c r="P50" s="8"/>
     </row>
-    <row r="51" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
+    <row r="51" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="10"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="5"/>
+      <c r="D51" s="29"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-    </row>
-    <row r="52" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="10"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="5"/>
+      <c r="D52" s="29"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-    </row>
-    <row r="53" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="10"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="5"/>
+      <c r="D53" s="29"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-    </row>
-    <row r="54" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="1:19" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="10"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="5"/>
+      <c r="D54" s="29"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-    </row>
-    <row r="55" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="9"/>
-      <c r="B55" s="11"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="10"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="5"/>
+      <c r="D55" s="29"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-    </row>
-    <row r="56" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="10"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="5"/>
+      <c r="D56" s="31"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-    </row>
-    <row r="57" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="5"/>
+      <c r="D57" s="29"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="9"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="9"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+    </row>
+    <row r="67" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+    </row>
+    <row r="68" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+    </row>
+    <row r="69" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+    </row>
+    <row r="70" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="9"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+    </row>
+    <row r="71" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="9"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+    </row>
+    <row r="72" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="9"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+    </row>
+    <row r="73" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="9"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+    </row>
+    <row r="74" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+    </row>
+    <row r="75" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+    </row>
+    <row r="76" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="9"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+    </row>
+    <row r="77" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+    </row>
+    <row r="78" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="25">
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B29:B43"/>
+    <mergeCell ref="A29:A43"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="A16:A28"/>
+    <mergeCell ref="B16:B28"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="L4:O4"/>
@@ -4480,16 +5208,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="A6:A18"/>
-    <mergeCell ref="B6:B18"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A27:A35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
